--- a/hw2/vector_times.xlsx
+++ b/hw2/vector_times.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Desktop/gpu_programming/hw2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="2260" windowWidth="19040" windowHeight="13500" tabRatio="500"/>
+    <workbookView xWindow="1360" yWindow="1820" windowWidth="24040" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>LOAD_LEVEL</t>
   </si>
@@ -79,6 +79,2826 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Throughput vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Element Count for Different Load Levels</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$10:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.048576E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>54788.65703584805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>744727.2727272728</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.71426796438186E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.80649798526155E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$10:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.048576E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>52783.50515463918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>659050.683829445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.01556204828541E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.58505534600498E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$10:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.048576E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>49516.44100580271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>565941.2780656303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4690876485093E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.76554696839588E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$10:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.048576E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$10:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>45490.89293647267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>473389.1938746027</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05933888305181E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.20863561441728E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$10:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.048576E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$10:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>41223.83252818035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>395844.4068615607</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>798829.8391028766</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>867803.7920732263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$10:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.048576E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$10:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>44080.92983211364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445338.407175863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>934693.0043499965</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.03009607638957E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2089788848"/>
+        <c:axId val="-2092237792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2089788848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2092237792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2092237792"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+          <c:min val="16384.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput (Values/ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2089788848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.486599114626801"/>
+          <c:y val="0.723981881297096"/>
+          <c:w val="0.473956688612013"/>
+          <c:h val="0.0724850706710842"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time vs Load Level for Different N</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02251</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.03679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>131072</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.04829</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08922</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.27547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40563</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59391</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86757</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.20831</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.01794</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2127895040"/>
+        <c:axId val="-2092572016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2127895040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Load Level</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2092572016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2092572016"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2127895040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.172800087489064"/>
+          <c:y val="0.194861111111111"/>
+          <c:w val="0.542620087082813"/>
+          <c:h val="0.0724183475684324"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>208910</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>753262</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>72938</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>579888</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>94376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>315220</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>153304</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,13 +3164,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -472,7 +3295,147 @@
         <v>1.0179400000000001</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1024</v>
+      </c>
+      <c r="B10">
+        <f>$A10/(B3)</f>
+        <v>54788.657035848053</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:G10" si="0">$A10/(C3)</f>
+        <v>52783.505154639177</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>49516.441005802706</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>45490.892936472679</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>41223.832528180355</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>44080.929832113645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>16384</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:G11" si="1">$A11/(B4)</f>
+        <v>744727.27272727282</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>659050.68382944493</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>565941.27806563035</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>473389.19387460267</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>395844.40686156071</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>445338.40717586299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>131072</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:G12" si="2">$A12/(B5)</f>
+        <v>2714267.9643818596</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>2015562.0482854065</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>1469087.6485093029</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>1059338.8830518064</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>798829.83910287661</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>934693.00434999645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1048576</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:G13" si="3">$A13/(B6)</f>
+        <v>3806497.985261553</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>2585055.3460049802</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>1765546.9683958848</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>1208635.6144172805</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>867803.7920732263</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>1030096.0763895711</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/hw2/vector_times.xlsx
+++ b/hw2/vector_times.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1820" windowWidth="24040" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="280" yWindow="1780" windowWidth="16880" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>LOAD_LEVEL</t>
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>BLOCK_LOAD_LEVEL</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,17 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Element Count for Different Load Levels</a:t>
+              <a:t> Element Count for Different </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Thread </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Load Levels</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -228,16 +241,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>54788.65703584805</c:v>
+                  <c:v>334.9689237814851</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>744727.2727272728</c:v>
+                  <c:v>2233.978729206436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.71426796438186E6</c:v>
+                  <c:v>3487.812666311868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.80649798526155E6</c:v>
+                  <c:v>3479.595155135224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -310,16 +323,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>52783.50515463918</c:v>
+                  <c:v>256.8347128166541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>659050.683829445</c:v>
+                  <c:v>1638.563856385638</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.01556204828541E6</c:v>
+                  <c:v>2449.531854454391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.58505534600498E6</c:v>
+                  <c:v>2469.387466735746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -392,16 +405,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>49516.44100580271</c:v>
+                  <c:v>196.2813877707495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>565941.2780656303</c:v>
+                  <c:v>1189.05580956528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4690876485093E6</c:v>
+                  <c:v>1710.274276468592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.76554696839588E6</c:v>
+                  <c:v>1732.897041811271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -474,16 +487,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>45490.89293647267</c:v>
+                  <c:v>143.558110192065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>473389.1938746027</c:v>
+                  <c:v>838.5709898659023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.05933888305181E6</c:v>
+                  <c:v>1178.917071415722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.20863561441728E6</c:v>
+                  <c:v>1175.125236745077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -556,16 +569,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>41223.83252818035</c:v>
+                  <c:v>109.3783379619739</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>395844.4068615607</c:v>
+                  <c:v>622.5633620853441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>798829.8391028766</c:v>
+                  <c:v>861.5222821085842</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>867803.7920732263</c:v>
+                  <c:v>854.0283433784004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -638,16 +651,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>44080.92983211364</c:v>
+                  <c:v>132.7800829875519</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445338.407175863</c:v>
+                  <c:v>756.2776957163957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>934693.0043499965</c:v>
+                  <c:v>1033.120517064712</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.03009607638957E6</c:v>
+                  <c:v>1034.404656209924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -664,11 +677,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2089788848"/>
-        <c:axId val="-2092237792"/>
+        <c:axId val="-2047251024"/>
+        <c:axId val="-2047481968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2089788848"/>
+        <c:axId val="-2047251024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -767,7 +780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092237792"/>
+        <c:crossAx val="-2047481968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -775,11 +788,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2092237792"/>
+        <c:axId val="-2047481968"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
-          <c:min val="16384.0"/>
+          <c:min val="64.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -818,7 +831,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Throughput (Values/ms)</a:t>
+                  <a:t>Throughput (Values/us)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -884,7 +897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2089788848"/>
+        <c:crossAx val="-2047251024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1009,7 +1022,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Time vs Load Level for Different N</a:t>
+              <a:t>Time vs Thread Load Level for Different N</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1122,22 +1135,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.01869</c:v>
+                  <c:v>3.057</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0194</c:v>
+                  <c:v>3.987</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02068</c:v>
+                  <c:v>5.217</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02251</c:v>
+                  <c:v>7.133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02484</c:v>
+                  <c:v>9.362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02323</c:v>
+                  <c:v>7.712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,22 +1229,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.022</c:v>
+                  <c:v>7.334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02486</c:v>
+                  <c:v>9.999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02895</c:v>
+                  <c:v>13.779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.03461</c:v>
+                  <c:v>19.538</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04139</c:v>
+                  <c:v>26.317</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.03679</c:v>
+                  <c:v>21.664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,22 +1323,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.04829</c:v>
+                  <c:v>37.58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06503</c:v>
+                  <c:v>53.509</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08922</c:v>
+                  <c:v>76.63800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12373</c:v>
+                  <c:v>111.18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16408</c:v>
+                  <c:v>152.14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14023</c:v>
+                  <c:v>126.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1404,22 +1417,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.27547</c:v>
+                  <c:v>301.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40563</c:v>
+                  <c:v>424.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59391</c:v>
+                  <c:v>605.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86757</c:v>
+                  <c:v>892.3099999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.20831</c:v>
+                  <c:v>1227.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.01794</c:v>
+                  <c:v>1013.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1436,11 +1449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2127895040"/>
-        <c:axId val="-2092572016"/>
+        <c:axId val="-2020396416"/>
+        <c:axId val="-2093635312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2127895040"/>
+        <c:axId val="-2020396416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,7 +1480,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Load Level</a:t>
+                  <a:t>Thread Load Level</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1539,7 +1552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092572016"/>
+        <c:crossAx val="-2093635312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1547,7 +1560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2092572016"/>
+        <c:axId val="-2093635312"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1593,7 +1606,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (ms)</a:t>
+                  <a:t> (us)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1660,7 +1673,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127895040"/>
+        <c:crossAx val="-2020396416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1682,6 +1695,2281 @@
           <c:y val="0.194861111111111"/>
           <c:w val="0.542620087082813"/>
           <c:h val="0.0724183475684324"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time vs Block Load Level for Different N</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.057</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.457</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.146000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.435</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.821</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.939</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>186.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>372.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>742.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>131072</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>37.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.387</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.045</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.615</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>186.97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>371.83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>741.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>301.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>264.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>247.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>242.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>263.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>312.79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>411.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>419.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>823.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="5">
+                  <c:v>6464.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6447.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6508.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6628.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6692.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2100965168"/>
+        <c:axId val="-2047630288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2100965168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Block Load Level</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2047630288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2047630288"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2100965168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.172800087489064"/>
+          <c:y val="0.194861111111111"/>
+          <c:w val="0.709784411276949"/>
+          <c:h val="0.0724183475684324"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Throughput vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Element Count for Different </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Block </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Load Levels</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.048576E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3554432E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>334.9689237814851</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2233.978729206436</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3487.812666311868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3479.595155135224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.048576E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3554432E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>229.082774049217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011.293886570096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3925.839398568305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3962.42300570608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.048576E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3554432E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$27:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>139.52854612345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2118.438065683993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3884.880998251282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4231.541565778853</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.048576E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3554432E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>76.09422605335512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1219.50130256792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3445.183335523722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4309.27546952698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.048576E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3554432E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$27:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40.90437005672286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>660.0862173159824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2690.864298911928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4332.421600628021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.048576E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3554432E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$27:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21.25848574809525</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>341.7676630718204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2622.12175165543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3974.739395777264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5190.970297029703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.048576E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3554432E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$27:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21.2514267925703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174.0922952683533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1370.83093656853</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3352.332235685283</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5204.33539101033</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.048576E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3554432E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$27:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21.26908297850244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.64309404086873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>701.0322511632883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2550.659207005594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5155.399317825646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.048576E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3554432E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$27:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21.27703783738858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.04301075268818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>352.5051770970605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2498.394091017393</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5062.451079494877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131072.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.048576E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3554432E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$27:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21.25230890563062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.06302181524374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>176.694526826638</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1273.672063842968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5013.51183361224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2047420912"/>
+        <c:axId val="-2047154080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2047420912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2047154080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2047154080"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+          <c:min val="16.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput (Values/us)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2047420912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.145477029980842"/>
+          <c:y val="0.927514929328916"/>
+          <c:w val="0.732364413257806"/>
+          <c:h val="0.0724850706710842"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1830,6 +4118,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2836,20 +5204,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>208910</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>17057</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285110</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>169457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>753262</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>72938</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>16662</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>22138</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2870,16 +6244,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>579888</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>173488</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>94376</xdr:rowOff>
+      <xdr:rowOff>43576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>315220</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>734320</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>153304</xdr:rowOff>
+      <xdr:rowOff>102504</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2893,6 +6267,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>802132</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>185928</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>633252</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3164,10 +6602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3208,22 +6646,22 @@
         <v>1024</v>
       </c>
       <c r="B3">
-        <v>1.8689999999999998E-2</v>
+        <v>3.0569999999999999</v>
       </c>
       <c r="C3">
-        <v>1.9400000000000001E-2</v>
+        <v>3.9870000000000001</v>
       </c>
       <c r="D3">
-        <v>2.068E-2</v>
+        <v>5.2169999999999996</v>
       </c>
       <c r="E3">
-        <v>2.2509999999999999E-2</v>
+        <v>7.133</v>
       </c>
       <c r="F3">
-        <v>2.4840000000000001E-2</v>
+        <v>9.3620000000000001</v>
       </c>
       <c r="G3">
-        <v>2.3230000000000001E-2</v>
+        <v>7.7119999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3231,22 +6669,22 @@
         <v>16384</v>
       </c>
       <c r="B4">
-        <v>2.1999999999999999E-2</v>
+        <v>7.3339999999999996</v>
       </c>
       <c r="C4">
-        <v>2.486E-2</v>
+        <v>9.9990000000000006</v>
       </c>
       <c r="D4">
-        <v>2.895E-2</v>
+        <v>13.779</v>
       </c>
       <c r="E4">
-        <v>3.4610000000000002E-2</v>
+        <v>19.538</v>
       </c>
       <c r="F4">
-        <v>4.1390000000000003E-2</v>
+        <v>26.317</v>
       </c>
       <c r="G4">
-        <v>3.6790000000000003E-2</v>
+        <v>21.664000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3254,22 +6692,22 @@
         <v>131072</v>
       </c>
       <c r="B5">
-        <v>4.829E-2</v>
+        <v>37.58</v>
       </c>
       <c r="C5">
-        <v>6.5030000000000004E-2</v>
+        <v>53.509</v>
       </c>
       <c r="D5">
-        <v>8.9219999999999994E-2</v>
+        <v>76.638000000000005</v>
       </c>
       <c r="E5">
-        <v>0.12373000000000001</v>
+        <v>111.18</v>
       </c>
       <c r="F5">
-        <v>0.16408</v>
+        <v>152.13999999999999</v>
       </c>
       <c r="G5">
-        <v>0.14022999999999999</v>
+        <v>126.87</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3277,22 +6715,27 @@
         <v>1048576</v>
       </c>
       <c r="B6">
-        <v>0.27546999999999999</v>
+        <v>301.35000000000002</v>
       </c>
       <c r="C6">
-        <v>0.40562999999999999</v>
+        <v>424.63</v>
       </c>
       <c r="D6">
-        <v>0.59391000000000005</v>
+        <v>605.1</v>
       </c>
       <c r="E6">
-        <v>0.86756999999999995</v>
+        <v>892.31</v>
       </c>
       <c r="F6">
-        <v>1.20831</v>
+        <v>1227.8</v>
       </c>
       <c r="G6">
-        <v>1.0179400000000001</v>
+        <v>1013.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>33554432</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3323,28 +6766,28 @@
         <v>1024</v>
       </c>
       <c r="B10">
-        <f>$A10/(B3)</f>
-        <v>54788.657035848053</v>
+        <f t="shared" ref="B10:G13" si="0">$A10/(B3)</f>
+        <v>334.9689237814851</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:G10" si="0">$A10/(C3)</f>
-        <v>52783.505154639177</v>
+        <f t="shared" si="0"/>
+        <v>256.83471281665413</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>49516.441005802706</v>
+        <v>196.28138777074949</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>45490.892936472679</v>
+        <v>143.55811019206504</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>41223.832528180355</v>
+        <v>109.37833796197394</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>44080.929832113645</v>
+        <v>132.78008298755188</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3352,28 +6795,28 @@
         <v>16384</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:G11" si="1">$A11/(B4)</f>
-        <v>744727.27272727282</v>
+        <f t="shared" si="0"/>
+        <v>2233.9787292064357</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
-        <v>659050.68382944493</v>
+        <f t="shared" si="0"/>
+        <v>1638.5638563856385</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
-        <v>565941.27806563035</v>
+        <f t="shared" si="0"/>
+        <v>1189.0558095652805</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>473389.19387460267</v>
+        <f t="shared" si="0"/>
+        <v>838.57098986590233</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>395844.40686156071</v>
+        <f t="shared" si="0"/>
+        <v>622.56336208534412</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>445338.40717586299</v>
+        <f t="shared" si="0"/>
+        <v>756.27769571639578</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3381,28 +6824,28 @@
         <v>131072</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:G12" si="2">$A12/(B5)</f>
-        <v>2714267.9643818596</v>
+        <f t="shared" si="0"/>
+        <v>3487.8126663118683</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
-        <v>2015562.0482854065</v>
+        <f t="shared" si="0"/>
+        <v>2449.5318544543907</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
-        <v>1469087.6485093029</v>
+        <f t="shared" si="0"/>
+        <v>1710.2742764685925</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
-        <v>1059338.8830518064</v>
+        <f t="shared" si="0"/>
+        <v>1178.9170714157221</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
-        <v>798829.83910287661</v>
+        <f t="shared" si="0"/>
+        <v>861.52228210858425</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
-        <v>934693.00434999645</v>
+        <f t="shared" si="0"/>
+        <v>1033.120517064712</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3410,28 +6853,468 @@
         <v>1048576</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:G13" si="3">$A13/(B6)</f>
-        <v>3806497.985261553</v>
+        <f t="shared" si="0"/>
+        <v>3479.5951551352246</v>
       </c>
       <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2469.3874667357463</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1732.8970418112708</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1175.1252367450775</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>854.02834337840045</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1034.404656209924</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1024</v>
+      </c>
+      <c r="B20">
+        <v>3.0569999999999999</v>
+      </c>
+      <c r="C20">
+        <v>4.47</v>
+      </c>
+      <c r="D20">
+        <v>7.3390000000000004</v>
+      </c>
+      <c r="E20">
+        <v>13.457000000000001</v>
+      </c>
+      <c r="F20">
+        <v>25.033999999999999</v>
+      </c>
+      <c r="G20">
+        <v>48.168999999999997</v>
+      </c>
+      <c r="H20">
+        <v>48.185000000000002</v>
+      </c>
+      <c r="I20">
+        <v>48.145000000000003</v>
+      </c>
+      <c r="J20">
+        <v>48.127000000000002</v>
+      </c>
+      <c r="K20">
+        <v>48.183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>16384</v>
+      </c>
+      <c r="B21">
+        <v>7.3339999999999996</v>
+      </c>
+      <c r="C21">
+        <v>8.1460000000000008</v>
+      </c>
+      <c r="D21">
+        <v>7.734</v>
+      </c>
+      <c r="E21">
+        <v>13.435</v>
+      </c>
+      <c r="F21">
+        <v>24.821000000000002</v>
+      </c>
+      <c r="G21">
+        <v>47.939</v>
+      </c>
+      <c r="H21">
+        <v>94.111000000000004</v>
+      </c>
+      <c r="I21">
+        <v>186.94</v>
+      </c>
+      <c r="J21">
+        <v>372</v>
+      </c>
+      <c r="K21">
+        <v>742.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>131072</v>
+      </c>
+      <c r="B22">
+        <v>37.58</v>
+      </c>
+      <c r="C22">
+        <v>33.387</v>
+      </c>
+      <c r="D22">
+        <v>33.738999999999997</v>
+      </c>
+      <c r="E22">
+        <v>38.045000000000002</v>
+      </c>
+      <c r="F22">
+        <v>48.71</v>
+      </c>
+      <c r="G22">
+        <v>49.987000000000002</v>
+      </c>
+      <c r="H22">
+        <v>95.614999999999995</v>
+      </c>
+      <c r="I22">
+        <v>186.97</v>
+      </c>
+      <c r="J22">
+        <v>371.83</v>
+      </c>
+      <c r="K22">
+        <v>741.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1048576</v>
+      </c>
+      <c r="B23">
+        <v>301.35000000000002</v>
+      </c>
+      <c r="C23">
+        <v>264.63</v>
+      </c>
+      <c r="D23">
+        <v>247.8</v>
+      </c>
+      <c r="E23">
+        <v>243.33</v>
+      </c>
+      <c r="F23">
+        <v>242.03</v>
+      </c>
+      <c r="G23">
+        <v>263.81</v>
+      </c>
+      <c r="H23">
+        <v>312.79000000000002</v>
+      </c>
+      <c r="I23">
+        <v>411.1</v>
+      </c>
+      <c r="J23">
+        <v>419.7</v>
+      </c>
+      <c r="K23">
+        <v>823.27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>33554432</v>
+      </c>
+      <c r="G24">
+        <v>6464</v>
+      </c>
+      <c r="H24">
+        <v>6447.4</v>
+      </c>
+      <c r="I24">
+        <v>6508.6</v>
+      </c>
+      <c r="J24">
+        <v>6628.1</v>
+      </c>
+      <c r="K24">
+        <v>6692.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1024</v>
+      </c>
+      <c r="B27">
+        <f>$A27/(B20)</f>
+        <v>334.9689237814851</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:G27" si="1">$A27/(C20)</f>
+        <v>229.08277404921702</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>139.52854612345004</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>76.094226053355129</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>40.904370056722861</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>21.25848574809525</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:I27" si="2">$A27/(H20)</f>
+        <v>21.2514267925703</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>21.269082978502439</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27:K27" si="3">$A27/(J20)</f>
+        <v>21.277037837388576</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="3"/>
-        <v>2585055.3460049802</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="3"/>
-        <v>1765546.9683958848</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
-        <v>1208635.6144172805</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>867803.7920732263</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>1030096.0763895711</v>
+        <v>21.252308905630617</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>16384</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:G28" si="4">$A28/(B21)</f>
+        <v>2233.9787292064357</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>2011.2938865700955</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>2118.4380656839926</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>1219.5013025679195</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>660.08621731598237</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>341.76766307182044</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:I28" si="5">$A28/(H21)</f>
+        <v>174.09229526835333</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>87.643094040868732</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28:K28" si="6">$A28/(J21)</f>
+        <v>44.043010752688176</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="6"/>
+        <v>22.063021815243737</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>131072</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:G29" si="7">$A29/(B22)</f>
+        <v>3487.8126663118683</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="7"/>
+        <v>3925.8393985683051</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="7"/>
+        <v>3884.8809982512821</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="7"/>
+        <v>3445.1833355237218</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="7"/>
+        <v>2690.8642989119276</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="7"/>
+        <v>2622.1217516554302</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:I29" si="8">$A29/(H22)</f>
+        <v>1370.8309365685302</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="8"/>
+        <v>701.03225116328827</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29:K29" si="9">$A29/(J22)</f>
+        <v>352.50517709706048</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="9"/>
+        <v>176.69452682663791</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1048576</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30:G31" si="10">$A30/(B23)</f>
+        <v>3479.5951551352246</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="10"/>
+        <v>3962.4230057060804</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="10"/>
+        <v>4231.5415657788535</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="10"/>
+        <v>4309.2754695269796</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="10"/>
+        <v>4332.4216006280212</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="10"/>
+        <v>3974.7393957772638</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30:I31" si="11">$A30/(H23)</f>
+        <v>3352.3322356852836</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="11"/>
+        <v>2550.6592070055945</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30:K31" si="12">$A30/(J23)</f>
+        <v>2498.3940910173933</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="12"/>
+        <v>1273.6720638429676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>33554432</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="10"/>
+        <v>5190.970297029703</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="11"/>
+        <v>5204.3353910103297</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="11"/>
+        <v>5155.399317825646</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="12"/>
+        <v>5062.4510794948774</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="12"/>
+        <v>5013.5118336122396</v>
       </c>
     </row>
   </sheetData>
